--- a/src/analysis_examples/circadb/results_jtk/cosinor_10542791_ppfibp1_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10542791_ppfibp1_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.17676198760887096, 0.29492364179095226]</t>
+          <t>[0.17934254817218065, 0.2923430812276426]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4.527568275847216e-08</v>
+        <v>2.170506330223532e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>4.527568275847216e-08</v>
+        <v>2.170506330223532e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-0.4402632347373086</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-0.69184222601577, -0.18868424345884716]</t>
+          <t>[-0.704421175579693, -0.17610529389492413]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.001533786985605134</v>
+        <v>0.002310110070534277</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001533786985605134</v>
+        <v>0.002310110070534277</v>
       </c>
       <c r="S2" t="n">
         <v>0.3540827043512705</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.32234813386916433, 0.38581727483337674]</t>
+          <t>[0.32232144252786743, 0.38584396617467365]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>1.942342342342428</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8324324324324723</v>
+        <v>0.7769369369369745</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.052252252252384</v>
+        <v>3.107747747747882</v>
       </c>
     </row>
   </sheetData>
